--- a/Documentación/Responsabilidades y Protocolos/IGPA Responsabilidades y Protocolo Final.xlsx
+++ b/Documentación/Responsabilidades y Protocolos/IGPA Responsabilidades y Protocolo Final.xlsx
@@ -1,15 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yerard\Documents\GitHub\ProyectoIGPA\Documentación\Responsabilidades y Protocolos\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Responsabilidades" sheetId="1" r:id="rId1"/>
     <sheet name="Protocolo" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">Protocolo!$1:$6</definedName>
+  </definedNames>
   <calcPr calcId="125725" iterateDelta="1E-4"/>
 </workbook>
 </file>
@@ -101,8 +109,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -477,6 +485,51 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -489,21 +542,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -512,42 +556,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -567,6 +575,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1578,7 +1594,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1610,9 +1626,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1644,6 +1661,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1819,140 +1837,150 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A2:F12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="17.140625" customWidth="1"/>
     <col min="4" max="6" width="17.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" thickBot="1"/>
-    <row r="7" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A7" s="8" t="s">
+    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="20" t="s">
+      <c r="B7" s="24"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="21"/>
-      <c r="F7" s="22"/>
-    </row>
-    <row r="8" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A8" s="11" t="s">
+      <c r="E7" s="9"/>
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12" t="s">
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="23"/>
-    </row>
-    <row r="9" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A9" s="13" t="s">
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+    </row>
+    <row r="9" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="26" t="s">
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="27"/>
-      <c r="F9" s="28"/>
-    </row>
-    <row r="10" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A10" s="13" t="s">
+      <c r="E9" s="18"/>
+      <c r="F9" s="19"/>
+    </row>
+    <row r="10" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="31"/>
-    </row>
-    <row r="11" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A11" s="17" t="s">
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="22"/>
+    </row>
+    <row r="11" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="14" t="s">
+      <c r="B11" s="30"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="24"/>
-    </row>
-    <row r="12" spans="1:6" ht="29.25" customHeight="1" thickBot="1">
-      <c r="A12" s="15" t="s">
+      <c r="E11" s="13"/>
+      <c r="F11" s="14"/>
+    </row>
+    <row r="12" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16" t="s">
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="25"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D9:F10"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D9:F10"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup fitToHeight="0" orientation="landscape" horizontalDpi="4294967292" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="10" max="10" width="7.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1960,7 +1988,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1968,7 +1996,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1976,7 +2004,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="8" spans="1:9" ht="42.75" customHeight="1">
+    <row r="8" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
         <v>17</v>
       </c>
@@ -1989,8 +2017,8 @@
       <c r="H8" s="33"/>
       <c r="I8" s="33"/>
     </row>
-    <row r="9" spans="1:9" ht="15.75" thickBot="1"/>
-    <row r="10" spans="1:9" ht="15.75" thickBot="1">
+    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="34" t="s">
         <v>4</v>
       </c>
@@ -2000,22 +2028,22 @@
       </c>
       <c r="H10" s="35"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E12" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E14" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D16" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="51.75" customHeight="1">
+    <row r="19" spans="1:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="33" t="s">
         <v>26</v>
       </c>
@@ -2028,8 +2056,8 @@
       <c r="H19" s="33"/>
       <c r="I19" s="33"/>
     </row>
-    <row r="20" spans="1:9" ht="15.75" thickBot="1"/>
-    <row r="21" spans="1:9" ht="15.75" thickBot="1">
+    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="34" t="s">
         <v>4</v>
       </c>
@@ -2039,29 +2067,29 @@
       </c>
       <c r="H21" s="35"/>
     </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1">
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E24" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D27" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D30" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="60" customHeight="1">
+    <row r="35" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="33" t="s">
         <v>22</v>
       </c>
@@ -2074,8 +2102,8 @@
       <c r="H35" s="33"/>
       <c r="I35" s="33"/>
     </row>
-    <row r="37" spans="1:9" ht="15.75" thickBot="1"/>
-    <row r="38" spans="1:9" ht="15.75" thickBot="1">
+    <row r="37" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="34" t="s">
         <v>4</v>
       </c>
@@ -2085,67 +2113,67 @@
       </c>
       <c r="H38" s="35"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D41" s="32" t="s">
         <v>21</v>
       </c>
       <c r="E41" s="32"/>
       <c r="F41" s="32"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D42" s="32"/>
       <c r="E42" s="32"/>
       <c r="F42" s="32"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D43" s="32"/>
       <c r="E43" s="32"/>
       <c r="F43" s="32"/>
     </row>
-    <row r="44" spans="1:9" ht="15.75" customHeight="1"/>
-    <row r="45" spans="1:9" ht="15.75" customHeight="1">
+    <row r="44" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D45" s="32" t="s">
         <v>23</v>
       </c>
       <c r="E45" s="32"/>
       <c r="F45" s="32"/>
     </row>
-    <row r="46" spans="1:9" ht="15" customHeight="1">
+    <row r="46" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D46" s="32"/>
       <c r="E46" s="32"/>
       <c r="F46" s="32"/>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D47" s="32"/>
       <c r="E47" s="32"/>
       <c r="F47" s="32"/>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D48" s="32"/>
       <c r="E48" s="32"/>
       <c r="F48" s="32"/>
     </row>
-    <row r="49" spans="4:6">
+    <row r="49" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D49" s="32"/>
       <c r="E49" s="32"/>
       <c r="F49" s="32"/>
     </row>
-    <row r="50" spans="4:6">
+    <row r="50" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D50" s="32"/>
       <c r="E50" s="32"/>
       <c r="F50" s="32"/>
     </row>
-    <row r="51" spans="4:6">
+    <row r="51" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D51" s="32"/>
       <c r="E51" s="32"/>
       <c r="F51" s="32"/>
     </row>
-    <row r="54" spans="4:6">
+    <row r="54" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E54" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="4:6">
+    <row r="58" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E58" s="7" t="s">
         <v>25</v>
       </c>
@@ -2164,8 +2192,8 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="G21:H21"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.59055118110236227" right="0.23622047244094491" top="0.74803149606299213" bottom="3.6614173228346458" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup scale="87" fitToHeight="0" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>